--- a/Infoline.WorkOfTime/Infoline.WorkOfTime.WebProject/Content/SampleExcels/bounty_template.xlsx
+++ b/Infoline.WorkOfTime/Infoline.WorkOfTime.WebProject/Content/SampleExcels/bounty_template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\source\Repos\Infoline-Bilgi-Teknolojileri\WorkOfTime-Web-Server\Infoline.WorkOfTime\Infoline.WorkOfTime.WebProject\Content\SampleExcels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seyit.tekce\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75ED4BD8-011E-4140-B494-619A20AEFDE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{958CEBD1-9303-4162-B226-124015EA71F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-4485" windowWidth="29040" windowHeight="15720" xr2:uid="{54599B08-70B3-48A7-8FDD-54BE8EF5EC8A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{54599B08-70B3-48A7-8FDD-54BE8EF5EC8A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
@@ -512,7 +512,7 @@
   <dimension ref="A1:M148"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F13:F14"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -521,14 +521,11 @@
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.44140625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="17.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -546,28 +543,28 @@
         <v>22</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>11</v>

--- a/Infoline.WorkOfTime/Infoline.WorkOfTime.WebProject/Content/SampleExcels/bounty_template.xlsx
+++ b/Infoline.WorkOfTime/Infoline.WorkOfTime.WebProject/Content/SampleExcels/bounty_template.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seyit.tekce\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71C20707-5FDE-4DF3-894C-0317A4A42A26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{693B78C2-09B2-4919-968F-094112190E6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{54599B08-70B3-48A7-8FDD-54BE8EF5EC8A}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hakediş Tablosu" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="16">
   <si>
     <t>Bayi Kodu</t>
   </si>
@@ -42,16 +42,7 @@
     <t>Imei</t>
   </si>
   <si>
-    <t>Sözlesme Baslangiç Tarihi</t>
-  </si>
-  <si>
     <t>Distributor Kodu</t>
-  </si>
-  <si>
-    <t>00852963</t>
-  </si>
-  <si>
-    <t>0232944</t>
   </si>
   <si>
     <t>5515191876549</t>
@@ -59,15 +50,45 @@
   <si>
     <t>1223254512558</t>
   </si>
+  <si>
+    <t>Ay</t>
+  </si>
+  <si>
+    <t>Yıl</t>
+  </si>
+  <si>
+    <t>2021</t>
+  </si>
+  <si>
+    <t>202111016789SP</t>
+  </si>
+  <si>
+    <t>Cihaz Modeli</t>
+  </si>
+  <si>
+    <t>202111016779MP</t>
+  </si>
+  <si>
+    <t>20210928700834</t>
+  </si>
+  <si>
+    <t>01013.00061</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>5515191876519</t>
+  </si>
+  <si>
+    <t>5515191876129</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
-  </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -81,11 +102,15 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="162"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
     </font>
     <font>
       <sz val="11"/>
@@ -100,6 +125,14 @@
       <family val="2"/>
       <charset val="162"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="162"/>
     </font>
   </fonts>
   <fills count="3">
@@ -141,25 +174,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -474,932 +499,1153 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DC54920-1630-4242-8BFF-9CEFBD67C71A}">
-  <dimension ref="A1:F148"/>
+  <dimension ref="A1:G148"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D3"/>
+      <selection activeCell="A2" sqref="A2:F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.109375" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" style="10" customWidth="1"/>
-    <col min="4" max="4" width="24.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.6640625" customWidth="1"/>
+    <col min="1" max="1" width="14.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.109375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="15.77734375" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.88671875" style="3"/>
+    <col min="7" max="7" width="16.109375" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="2">
+        <v>12</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="11" t="s">
+      <c r="B4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="9">
-        <v>11550022</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="6">
-        <v>44536</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="9">
-        <v>11550022</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="6">
-        <v>44554</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="2"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="9"/>
-      <c r="F4" s="3"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="9"/>
-      <c r="F5" s="3"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="9"/>
-      <c r="F6" s="3"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="9"/>
-      <c r="F7" s="3"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7" s="2"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="9"/>
-      <c r="F8" s="3"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="G8" s="2"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
-      <c r="C9" s="9"/>
-      <c r="F9" s="3"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="G9" s="2"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
-      <c r="C10" s="9"/>
-      <c r="F10" s="3"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="G10" s="2"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
-      <c r="C11" s="9"/>
-      <c r="F11" s="3"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="G11" s="2"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="9"/>
-      <c r="F12" s="3"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="G12" s="2"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
-      <c r="C13" s="9"/>
-      <c r="F13" s="3"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="G13" s="2"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
-      <c r="C14" s="9"/>
-      <c r="F14" s="3"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="G14" s="2"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
-      <c r="C15" s="9"/>
-      <c r="F15" s="3"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="G15" s="2"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="9"/>
-      <c r="F16" s="3"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="G16" s="2"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
-      <c r="C17" s="9"/>
-      <c r="F17" s="3"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="G17" s="2"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
-      <c r="C18" s="9"/>
-      <c r="F18" s="3"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="G18" s="2"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
-      <c r="C19" s="9"/>
-      <c r="F19" s="3"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="G19" s="2"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
-      <c r="C20" s="9"/>
-      <c r="F20" s="3"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="G20" s="2"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
-      <c r="C21" s="9"/>
-      <c r="F21" s="3"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="G21" s="2"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
-      <c r="C22" s="9"/>
-      <c r="F22" s="3"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="G22" s="2"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
-      <c r="C23" s="9"/>
-      <c r="F23" s="3"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="G23" s="2"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
-      <c r="C24" s="9"/>
-      <c r="F24" s="3"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="G24" s="2"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
-      <c r="C25" s="9"/>
-      <c r="F25" s="3"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="G25" s="2"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
-      <c r="C26" s="9"/>
-      <c r="F26" s="3"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="G26" s="2"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
-      <c r="C27" s="9"/>
-      <c r="F27" s="3"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="G27" s="2"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
-      <c r="C28" s="9"/>
-      <c r="F28" s="3"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="G28" s="2"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
-      <c r="C29" s="9"/>
-      <c r="F29" s="3"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="G29" s="2"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
-      <c r="C30" s="9"/>
-      <c r="F30" s="3"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="G30" s="2"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
-      <c r="C31" s="9"/>
-      <c r="F31" s="3"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="G31" s="2"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
-      <c r="C32" s="9"/>
-      <c r="F32" s="3"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="G32" s="2"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
-      <c r="C33" s="9"/>
-      <c r="F33" s="3"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="G33" s="2"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
-      <c r="C34" s="9"/>
-      <c r="F34" s="3"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="G34" s="2"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
-      <c r="C35" s="9"/>
-      <c r="F35" s="3"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="G35" s="2"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
-      <c r="C36" s="9"/>
-      <c r="F36" s="3"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="G36" s="2"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
-      <c r="C37" s="9"/>
-      <c r="F37" s="3"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="G37" s="2"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
-      <c r="C38" s="9"/>
-      <c r="F38" s="3"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="G38" s="2"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
-      <c r="C39" s="9"/>
-      <c r="F39" s="3"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="G39" s="2"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
-      <c r="C40" s="9"/>
-      <c r="F40" s="3"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="G40" s="2"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
-      <c r="C41" s="9"/>
-      <c r="F41" s="3"/>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="G41" s="2"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
-      <c r="C42" s="9"/>
-      <c r="F42" s="3"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="G42" s="2"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
-      <c r="C43" s="9"/>
-      <c r="F43" s="3"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="G43" s="2"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
-      <c r="C44" s="9"/>
-      <c r="F44" s="3"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="G44" s="2"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
-      <c r="C45" s="9"/>
-      <c r="F45" s="3"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="G45" s="2"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
-      <c r="C46" s="9"/>
-      <c r="F46" s="3"/>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="G46" s="2"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
-      <c r="C47" s="9"/>
-      <c r="F47" s="3"/>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="G47" s="2"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
-      <c r="C48" s="9"/>
-      <c r="F48" s="3"/>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="G48" s="2"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
-      <c r="C49" s="9"/>
-      <c r="F49" s="3"/>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="G49" s="2"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
-      <c r="C50" s="9"/>
-      <c r="F50" s="3"/>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
+      <c r="G50" s="2"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
-      <c r="C51" s="9"/>
-      <c r="F51" s="3"/>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="G51" s="2"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
-      <c r="C52" s="9"/>
-      <c r="F52" s="3"/>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+      <c r="G52" s="2"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
-      <c r="C53" s="9"/>
-      <c r="F53" s="3"/>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C53" s="2"/>
+      <c r="D53" s="2"/>
+      <c r="G53" s="2"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
-      <c r="C54" s="9"/>
-      <c r="F54" s="3"/>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
+      <c r="G54" s="2"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
-      <c r="C55" s="9"/>
-      <c r="F55" s="3"/>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C55" s="2"/>
+      <c r="D55" s="2"/>
+      <c r="G55" s="2"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
-      <c r="C56" s="9"/>
-      <c r="F56" s="3"/>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C56" s="2"/>
+      <c r="D56" s="2"/>
+      <c r="G56" s="2"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
-      <c r="C57" s="9"/>
-      <c r="F57" s="3"/>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C57" s="2"/>
+      <c r="D57" s="2"/>
+      <c r="G57" s="2"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
-      <c r="C58" s="9"/>
-      <c r="F58" s="3"/>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C58" s="2"/>
+      <c r="D58" s="2"/>
+      <c r="G58" s="2"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
-      <c r="C59" s="9"/>
-      <c r="F59" s="3"/>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C59" s="2"/>
+      <c r="D59" s="2"/>
+      <c r="G59" s="2"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
-      <c r="C60" s="9"/>
-      <c r="F60" s="3"/>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C60" s="2"/>
+      <c r="D60" s="2"/>
+      <c r="G60" s="2"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
-      <c r="C61" s="9"/>
-      <c r="F61" s="3"/>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C61" s="2"/>
+      <c r="D61" s="2"/>
+      <c r="G61" s="2"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
-      <c r="C62" s="9"/>
-      <c r="F62" s="3"/>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C62" s="2"/>
+      <c r="D62" s="2"/>
+      <c r="G62" s="2"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
-      <c r="C63" s="9"/>
-      <c r="F63" s="3"/>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C63" s="2"/>
+      <c r="D63" s="2"/>
+      <c r="G63" s="2"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
-      <c r="C64" s="9"/>
-      <c r="F64" s="3"/>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C64" s="2"/>
+      <c r="D64" s="2"/>
+      <c r="G64" s="2"/>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
-      <c r="C65" s="9"/>
-      <c r="F65" s="3"/>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C65" s="2"/>
+      <c r="D65" s="2"/>
+      <c r="G65" s="2"/>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
-      <c r="C66" s="9"/>
-      <c r="F66" s="3"/>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C66" s="2"/>
+      <c r="D66" s="2"/>
+      <c r="G66" s="2"/>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
-      <c r="C67" s="9"/>
-      <c r="F67" s="3"/>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C67" s="2"/>
+      <c r="D67" s="2"/>
+      <c r="G67" s="2"/>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
-      <c r="C68" s="9"/>
-      <c r="F68" s="3"/>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C68" s="2"/>
+      <c r="D68" s="2"/>
+      <c r="G68" s="2"/>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
-      <c r="C69" s="9"/>
-      <c r="F69" s="3"/>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C69" s="2"/>
+      <c r="D69" s="2"/>
+      <c r="G69" s="2"/>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
-      <c r="C70" s="9"/>
-      <c r="F70" s="3"/>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C70" s="2"/>
+      <c r="D70" s="2"/>
+      <c r="G70" s="2"/>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
-      <c r="C71" s="9"/>
-      <c r="F71" s="3"/>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C71" s="2"/>
+      <c r="D71" s="2"/>
+      <c r="G71" s="2"/>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
-      <c r="C72" s="9"/>
-      <c r="F72" s="3"/>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C72" s="2"/>
+      <c r="D72" s="2"/>
+      <c r="G72" s="2"/>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
-      <c r="C73" s="9"/>
-      <c r="F73" s="3"/>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C73" s="2"/>
+      <c r="D73" s="2"/>
+      <c r="G73" s="2"/>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
-      <c r="C74" s="9"/>
-      <c r="F74" s="3"/>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C74" s="2"/>
+      <c r="D74" s="2"/>
+      <c r="G74" s="2"/>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
-      <c r="C75" s="9"/>
-      <c r="F75" s="3"/>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C75" s="2"/>
+      <c r="D75" s="2"/>
+      <c r="G75" s="2"/>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
-      <c r="C76" s="9"/>
-      <c r="F76" s="3"/>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C76" s="2"/>
+      <c r="D76" s="2"/>
+      <c r="G76" s="2"/>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
-      <c r="C77" s="9"/>
-      <c r="F77" s="3"/>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C77" s="2"/>
+      <c r="D77" s="2"/>
+      <c r="G77" s="2"/>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
-      <c r="C78" s="9"/>
-      <c r="F78" s="3"/>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C78" s="2"/>
+      <c r="D78" s="2"/>
+      <c r="G78" s="2"/>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
-      <c r="C79" s="9"/>
-      <c r="F79" s="3"/>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C79" s="2"/>
+      <c r="D79" s="2"/>
+      <c r="G79" s="2"/>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
-      <c r="C80" s="9"/>
-      <c r="F80" s="3"/>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C80" s="2"/>
+      <c r="D80" s="2"/>
+      <c r="G80" s="2"/>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
-      <c r="C81" s="9"/>
-      <c r="F81" s="3"/>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C81" s="2"/>
+      <c r="D81" s="2"/>
+      <c r="G81" s="2"/>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
-      <c r="C82" s="9"/>
-      <c r="F82" s="3"/>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C82" s="2"/>
+      <c r="D82" s="2"/>
+      <c r="G82" s="2"/>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
-      <c r="C83" s="9"/>
-      <c r="F83" s="3"/>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C83" s="2"/>
+      <c r="D83" s="2"/>
+      <c r="G83" s="2"/>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
-      <c r="C84" s="9"/>
-      <c r="F84" s="3"/>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C84" s="2"/>
+      <c r="D84" s="2"/>
+      <c r="G84" s="2"/>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
-      <c r="C85" s="9"/>
-      <c r="F85" s="3"/>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C85" s="2"/>
+      <c r="D85" s="2"/>
+      <c r="G85" s="2"/>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
-      <c r="C86" s="9"/>
-      <c r="F86" s="3"/>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C86" s="2"/>
+      <c r="D86" s="2"/>
+      <c r="G86" s="2"/>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
-      <c r="C87" s="9"/>
-      <c r="F87" s="3"/>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C87" s="2"/>
+      <c r="D87" s="2"/>
+      <c r="G87" s="2"/>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
-      <c r="C88" s="9"/>
-      <c r="F88" s="3"/>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C88" s="2"/>
+      <c r="D88" s="2"/>
+      <c r="G88" s="2"/>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
-      <c r="C89" s="9"/>
-      <c r="F89" s="3"/>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C89" s="2"/>
+      <c r="D89" s="2"/>
+      <c r="G89" s="2"/>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
-      <c r="C90" s="9"/>
-      <c r="F90" s="3"/>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C90" s="2"/>
+      <c r="D90" s="2"/>
+      <c r="G90" s="2"/>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
-      <c r="C91" s="9"/>
-      <c r="F91" s="3"/>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C91" s="2"/>
+      <c r="D91" s="2"/>
+      <c r="G91" s="2"/>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
-      <c r="C92" s="9"/>
-      <c r="F92" s="3"/>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C92" s="2"/>
+      <c r="D92" s="2"/>
+      <c r="G92" s="2"/>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
-      <c r="C93" s="9"/>
-      <c r="F93" s="3"/>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C93" s="2"/>
+      <c r="D93" s="2"/>
+      <c r="G93" s="2"/>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
-      <c r="C94" s="9"/>
-      <c r="F94" s="3"/>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C94" s="2"/>
+      <c r="D94" s="2"/>
+      <c r="G94" s="2"/>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
-      <c r="C95" s="9"/>
-      <c r="F95" s="3"/>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C95" s="2"/>
+      <c r="D95" s="2"/>
+      <c r="G95" s="2"/>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
-      <c r="C96" s="9"/>
-      <c r="F96" s="3"/>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C96" s="2"/>
+      <c r="D96" s="2"/>
+      <c r="G96" s="2"/>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
-      <c r="C97" s="9"/>
-      <c r="F97" s="3"/>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C97" s="2"/>
+      <c r="D97" s="2"/>
+      <c r="G97" s="2"/>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
-      <c r="C98" s="9"/>
-      <c r="F98" s="3"/>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C98" s="2"/>
+      <c r="D98" s="2"/>
+      <c r="G98" s="2"/>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
-      <c r="C99" s="9"/>
-      <c r="F99" s="3"/>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C99" s="2"/>
+      <c r="D99" s="2"/>
+      <c r="G99" s="2"/>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
-      <c r="C100" s="9"/>
-      <c r="F100" s="3"/>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C100" s="2"/>
+      <c r="D100" s="2"/>
+      <c r="G100" s="2"/>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
-      <c r="C101" s="9"/>
-      <c r="F101" s="3"/>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C101" s="2"/>
+      <c r="D101" s="2"/>
+      <c r="G101" s="2"/>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
-      <c r="C102" s="9"/>
-      <c r="F102" s="3"/>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C102" s="2"/>
+      <c r="D102" s="2"/>
+      <c r="G102" s="2"/>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
-      <c r="C103" s="9"/>
-      <c r="F103" s="3"/>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C103" s="2"/>
+      <c r="D103" s="2"/>
+      <c r="G103" s="2"/>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
-      <c r="C104" s="9"/>
-      <c r="F104" s="3"/>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C104" s="2"/>
+      <c r="D104" s="2"/>
+      <c r="G104" s="2"/>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
-      <c r="C105" s="9"/>
-      <c r="F105" s="3"/>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C105" s="2"/>
+      <c r="D105" s="2"/>
+      <c r="G105" s="2"/>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
-      <c r="C106" s="9"/>
-      <c r="F106" s="3"/>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C106" s="2"/>
+      <c r="D106" s="2"/>
+      <c r="G106" s="2"/>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
-      <c r="C107" s="9"/>
-      <c r="F107" s="3"/>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C107" s="2"/>
+      <c r="D107" s="2"/>
+      <c r="G107" s="2"/>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
-      <c r="C108" s="9"/>
-      <c r="F108" s="3"/>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C108" s="2"/>
+      <c r="D108" s="2"/>
+      <c r="G108" s="2"/>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
-      <c r="C109" s="9"/>
-      <c r="F109" s="3"/>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C109" s="2"/>
+      <c r="D109" s="2"/>
+      <c r="G109" s="2"/>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
-      <c r="C110" s="9"/>
-      <c r="F110" s="3"/>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C110" s="2"/>
+      <c r="D110" s="2"/>
+      <c r="G110" s="2"/>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
-      <c r="C111" s="9"/>
-      <c r="F111" s="3"/>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C111" s="2"/>
+      <c r="D111" s="2"/>
+      <c r="G111" s="2"/>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
-      <c r="C112" s="9"/>
-      <c r="F112" s="3"/>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C112" s="2"/>
+      <c r="D112" s="2"/>
+      <c r="G112" s="2"/>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
-      <c r="C113" s="9"/>
-      <c r="F113" s="3"/>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C113" s="2"/>
+      <c r="D113" s="2"/>
+      <c r="G113" s="2"/>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
-      <c r="C114" s="9"/>
-      <c r="F114" s="3"/>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C114" s="2"/>
+      <c r="D114" s="2"/>
+      <c r="G114" s="2"/>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
-      <c r="C115" s="9"/>
-      <c r="F115" s="3"/>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C115" s="2"/>
+      <c r="D115" s="2"/>
+      <c r="G115" s="2"/>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
-      <c r="C116" s="9"/>
-      <c r="F116" s="3"/>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C116" s="2"/>
+      <c r="D116" s="2"/>
+      <c r="G116" s="2"/>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
-      <c r="C117" s="9"/>
-      <c r="F117" s="3"/>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C117" s="2"/>
+      <c r="D117" s="2"/>
+      <c r="G117" s="2"/>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
-      <c r="C118" s="9"/>
-      <c r="F118" s="3"/>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C118" s="2"/>
+      <c r="D118" s="2"/>
+      <c r="G118" s="2"/>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
-      <c r="C119" s="9"/>
-      <c r="F119" s="3"/>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C119" s="2"/>
+      <c r="D119" s="2"/>
+      <c r="G119" s="2"/>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
-      <c r="C120" s="9"/>
-      <c r="F120" s="3"/>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C120" s="2"/>
+      <c r="D120" s="2"/>
+      <c r="G120" s="2"/>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
-      <c r="C121" s="9"/>
-      <c r="F121" s="3"/>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C121" s="2"/>
+      <c r="D121" s="2"/>
+      <c r="G121" s="2"/>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
-      <c r="C122" s="9"/>
-      <c r="F122" s="3"/>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C122" s="2"/>
+      <c r="D122" s="2"/>
+      <c r="G122" s="2"/>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
-      <c r="C123" s="9"/>
-      <c r="F123" s="3"/>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C123" s="2"/>
+      <c r="D123" s="2"/>
+      <c r="G123" s="2"/>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
-      <c r="C124" s="9"/>
-      <c r="F124" s="3"/>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C124" s="2"/>
+      <c r="D124" s="2"/>
+      <c r="G124" s="2"/>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
-      <c r="C125" s="9"/>
-      <c r="F125" s="3"/>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C125" s="2"/>
+      <c r="D125" s="2"/>
+      <c r="G125" s="2"/>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
-      <c r="C126" s="9"/>
-      <c r="F126" s="3"/>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C126" s="2"/>
+      <c r="D126" s="2"/>
+      <c r="G126" s="2"/>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
-      <c r="C127" s="9"/>
-      <c r="F127" s="3"/>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C127" s="2"/>
+      <c r="D127" s="2"/>
+      <c r="G127" s="2"/>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
-      <c r="C128" s="9"/>
-      <c r="F128" s="3"/>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C128" s="2"/>
+      <c r="D128" s="2"/>
+      <c r="G128" s="2"/>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
-      <c r="C129" s="9"/>
-      <c r="F129" s="3"/>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C129" s="2"/>
+      <c r="D129" s="2"/>
+      <c r="G129" s="2"/>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A130" s="2"/>
       <c r="B130" s="2"/>
-      <c r="C130" s="9"/>
-      <c r="F130" s="3"/>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C130" s="2"/>
+      <c r="D130" s="2"/>
+      <c r="G130" s="2"/>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A131" s="2"/>
       <c r="B131" s="2"/>
-      <c r="C131" s="9"/>
-      <c r="F131" s="3"/>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C131" s="2"/>
+      <c r="D131" s="2"/>
+      <c r="G131" s="2"/>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
-      <c r="C132" s="9"/>
-      <c r="F132" s="3"/>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C132" s="2"/>
+      <c r="D132" s="2"/>
+      <c r="G132" s="2"/>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A133" s="2"/>
       <c r="B133" s="2"/>
-      <c r="C133" s="9"/>
-      <c r="F133" s="3"/>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C133" s="2"/>
+      <c r="D133" s="2"/>
+      <c r="G133" s="2"/>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A134" s="2"/>
       <c r="B134" s="2"/>
-      <c r="C134" s="9"/>
-      <c r="F134" s="3"/>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C134" s="2"/>
+      <c r="D134" s="2"/>
+      <c r="G134" s="2"/>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A135" s="2"/>
       <c r="B135" s="2"/>
-      <c r="C135" s="9"/>
-      <c r="F135" s="3"/>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C135" s="2"/>
+      <c r="D135" s="2"/>
+      <c r="G135" s="2"/>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A136" s="2"/>
       <c r="B136" s="2"/>
-      <c r="C136" s="9"/>
-      <c r="F136" s="3"/>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C136" s="2"/>
+      <c r="D136" s="2"/>
+      <c r="G136" s="2"/>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A137" s="2"/>
       <c r="B137" s="2"/>
-      <c r="C137" s="9"/>
-      <c r="F137" s="3"/>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C137" s="2"/>
+      <c r="D137" s="2"/>
+      <c r="G137" s="2"/>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A138" s="2"/>
       <c r="B138" s="2"/>
-      <c r="C138" s="9"/>
-      <c r="F138" s="3"/>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C138" s="2"/>
+      <c r="D138" s="2"/>
+      <c r="G138" s="2"/>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A139" s="2"/>
       <c r="B139" s="2"/>
-      <c r="C139" s="9"/>
-      <c r="F139" s="3"/>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C139" s="2"/>
+      <c r="D139" s="2"/>
+      <c r="G139" s="2"/>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A140" s="2"/>
       <c r="B140" s="2"/>
-      <c r="C140" s="9"/>
-      <c r="F140" s="3"/>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C140" s="2"/>
+      <c r="D140" s="2"/>
+      <c r="G140" s="2"/>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A141" s="2"/>
       <c r="B141" s="2"/>
-      <c r="C141" s="9"/>
-      <c r="F141" s="3"/>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C141" s="2"/>
+      <c r="D141" s="2"/>
+      <c r="G141" s="2"/>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A142" s="2"/>
       <c r="B142" s="2"/>
-      <c r="C142" s="9"/>
-      <c r="F142" s="3"/>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C142" s="2"/>
+      <c r="D142" s="2"/>
+      <c r="G142" s="2"/>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A143" s="2"/>
       <c r="B143" s="2"/>
-      <c r="C143" s="9"/>
-      <c r="F143" s="3"/>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C143" s="2"/>
+      <c r="D143" s="2"/>
+      <c r="G143" s="2"/>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A144" s="2"/>
       <c r="B144" s="2"/>
-      <c r="C144" s="9"/>
-      <c r="F144" s="3"/>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C144" s="2"/>
+      <c r="D144" s="2"/>
+      <c r="G144" s="2"/>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A145" s="2"/>
       <c r="B145" s="2"/>
-      <c r="C145" s="9"/>
-      <c r="F145" s="3"/>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C145" s="2"/>
+      <c r="D145" s="2"/>
+      <c r="G145" s="2"/>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A146" s="2"/>
       <c r="B146" s="2"/>
-      <c r="C146" s="9"/>
-      <c r="F146" s="3"/>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C146" s="2"/>
+      <c r="D146" s="2"/>
+      <c r="G146" s="2"/>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A147" s="2"/>
       <c r="B147" s="2"/>
-      <c r="C147" s="9"/>
-      <c r="F147" s="3"/>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C147" s="2"/>
+      <c r="D147" s="2"/>
+      <c r="G147" s="2"/>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A148" s="2"/>
       <c r="B148" s="2"/>
-      <c r="C148" s="9"/>
-      <c r="F148" s="3"/>
+      <c r="C148" s="2"/>
+      <c r="D148" s="2"/>
+      <c r="G148" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
